--- a/rosters/2023/Orlando/Orlando.xlsx
+++ b/rosters/2023/Orlando/Orlando.xlsx
@@ -49,162 +49,162 @@
     <t>Franz Wagner</t>
   </si>
   <si>
+    <t>Bol Bol</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
     <t>Terrence Ross</t>
   </si>
   <si>
-    <t>Bol Bol</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Mo Bamba</t>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Markelle Fultz</t>
+  </si>
+  <si>
+    <t>Moritz Wagner</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
   </si>
   <si>
     <t>Caleb Houstan</t>
   </si>
   <si>
+    <t>Gary Harris</t>
+  </si>
+  <si>
+    <t>Admiral Schofield (TW)</t>
+  </si>
+  <si>
     <t>Kevon Harris (TW)</t>
   </si>
   <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
     <t>R.J. Hampton</t>
   </si>
   <si>
-    <t>Admiral Schofield (TW)</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>Moritz Wagner</t>
-  </si>
-  <si>
-    <t>Markelle Fultz</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
     <t>Chuma Okeke</t>
   </si>
   <si>
-    <t>Gary Harris</t>
-  </si>
-  <si>
     <t>Jonathan Isaac</t>
   </si>
   <si>
+    <t>Patrick Beverley</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>PF</t>
+    <t>PG</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>6-10</t>
+  </si>
+  <si>
     <t>6-6</t>
   </si>
   <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>6-10</t>
-  </si>
-  <si>
-    <t>7-0</t>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>6-11</t>
+  </si>
+  <si>
+    <t>6-4</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>6-11</t>
-  </si>
-  <si>
-    <t>6-3</t>
+    <t>6-1</t>
   </si>
   <si>
     <t>August 27, 2001</t>
   </si>
   <si>
+    <t>November 16, 1999</t>
+  </si>
+  <si>
+    <t>November 12, 2002</t>
+  </si>
+  <si>
     <t>February 5, 1991</t>
   </si>
   <si>
-    <t>November 16, 1999</t>
-  </si>
-  <si>
-    <t>November 12, 2002</t>
-  </si>
-  <si>
-    <t>May 12, 1998</t>
+    <t>May 15, 2000</t>
+  </si>
+  <si>
+    <t>April 16, 1999</t>
+  </si>
+  <si>
+    <t>May 29, 1998</t>
+  </si>
+  <si>
+    <t>April 26, 1997</t>
+  </si>
+  <si>
+    <t>June 3, 2001</t>
   </si>
   <si>
     <t>January 9, 2003</t>
   </si>
   <si>
+    <t>September 14, 1994</t>
+  </si>
+  <si>
+    <t>March 30, 1997</t>
+  </si>
+  <si>
     <t>June 24, 1997</t>
   </si>
   <si>
-    <t>May 15, 2000</t>
-  </si>
-  <si>
     <t>February 7, 2001</t>
   </si>
   <si>
-    <t>March 30, 1997</t>
-  </si>
-  <si>
-    <t>April 16, 1999</t>
-  </si>
-  <si>
-    <t>April 26, 1997</t>
-  </si>
-  <si>
-    <t>May 29, 1998</t>
-  </si>
-  <si>
-    <t>June 3, 2001</t>
-  </si>
-  <si>
     <t>August 18, 1998</t>
   </si>
   <si>
-    <t>September 14, 1994</t>
-  </si>
-  <si>
     <t>October 3, 1997</t>
   </si>
   <si>
+    <t>July 12, 1988</t>
+  </si>
+  <si>
     <t>de</t>
   </si>
   <si>
+    <t>sd</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
-    <t>sd</t>
-  </si>
-  <si>
     <t>ca</t>
   </si>
   <si>
@@ -214,21 +214,21 @@
     <t>1</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>R</t>
+    <t>2</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -238,88 +238,88 @@
     <t>Michigan</t>
   </si>
   <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
     <t>Washington</t>
   </si>
   <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>Texas</t>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
   </si>
   <si>
     <t>Stephen F. Austin</t>
   </si>
   <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Gonzaga</t>
-  </si>
-  <si>
     <t>Auburn</t>
   </si>
   <si>
-    <t>Michigan State</t>
-  </si>
-  <si>
     <t>Florida State</t>
   </si>
   <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/wagnefr01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/bolbo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/banchpa01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/r/rosste01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/bolbo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/banchpa01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/bambamo01.html</t>
+    <t>https://www.basketball-reference.com/players/a/anthoco01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/c/cartewe01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/f/fultzma01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/wagnemo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/s/suggsja01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/houstca01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/harriga01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/s/schofad01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/harrike01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/a/anthoco01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/hamptrj01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/s/schofad01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/c/cartewe01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/wagnemo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/f/fultzma01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/s/suggsja01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/o/okekech01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/harriga01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/i/isaacjo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/beverpa01.html</t>
   </si>
 </sst>
 </file>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -780,7 +780,7 @@
         <v>33</v>
       </c>
       <c r="F3">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
         <v>44</v>
@@ -803,19 +803,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -838,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -850,13 +850,13 @@
         <v>35</v>
       </c>
       <c r="F5">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
         <v>68</v>
@@ -873,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -885,13 +885,13 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
         <v>69</v>
@@ -908,31 +908,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="G7" t="s">
         <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>90</v>
@@ -943,31 +943,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G8" t="s">
         <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>91</v>
@@ -978,7 +978,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -990,19 +990,19 @@
         <v>38</v>
       </c>
       <c r="F9">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
         <v>70</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>92</v>
@@ -1013,28 +1013,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>39</v>
       </c>
       <c r="F10">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="G10" t="s">
         <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>93</v>
@@ -1045,31 +1048,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
       </c>
       <c r="F11">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>94</v>
@@ -1080,31 +1083,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="G12" t="s">
         <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>95</v>
@@ -1115,31 +1118,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
       </c>
       <c r="F13">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
         <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>96</v>
@@ -1150,31 +1153,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F14">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G14" t="s">
         <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>97</v>
@@ -1185,31 +1188,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>39</v>
       </c>
       <c r="F15">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
         <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>98</v>
@@ -1229,7 +1229,7 @@
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>229</v>
@@ -1238,10 +1238,10 @@
         <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16" t="s">
         <v>82</v>
@@ -1255,7 +1255,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -1264,19 +1264,19 @@
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G17" t="s">
         <v>58</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
         <v>83</v>
@@ -1293,22 +1293,22 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
         <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J18" t="s">
         <v>84</v>

--- a/rosters/2023/Orlando/Orlando.xlsx
+++ b/rosters/2023/Orlando/Orlando.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
   <si>
     <t>No.</t>
   </si>
@@ -55,15 +55,12 @@
     <t>Paolo Banchero</t>
   </si>
   <si>
-    <t>Terrence Ross</t>
+    <t>Wendell Carter Jr.</t>
   </si>
   <si>
     <t>Cole Anthony</t>
   </si>
   <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
     <t>Markelle Fultz</t>
   </si>
   <si>
@@ -94,24 +91,21 @@
     <t>Jonathan Isaac</t>
   </si>
   <si>
-    <t>Patrick Beverley</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
     <t>PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
@@ -121,30 +115,27 @@
     <t>6-10</t>
   </si>
   <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>6-11</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>6-6</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>6-11</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>6-8</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>6-1</t>
-  </si>
-  <si>
     <t>August 27, 2001</t>
   </si>
   <si>
@@ -154,15 +145,12 @@
     <t>November 12, 2002</t>
   </si>
   <si>
-    <t>February 5, 1991</t>
+    <t>April 16, 1999</t>
   </si>
   <si>
     <t>May 15, 2000</t>
   </si>
   <si>
-    <t>April 16, 1999</t>
-  </si>
-  <si>
     <t>May 29, 1998</t>
   </si>
   <si>
@@ -193,9 +181,6 @@
     <t>October 3, 1997</t>
   </si>
   <si>
-    <t>July 12, 1988</t>
-  </si>
-  <si>
     <t>de</t>
   </si>
   <si>
@@ -220,15 +205,12 @@
     <t>R</t>
   </si>
   <si>
-    <t>10</t>
+    <t>4</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -244,12 +226,12 @@
     <t>Duke</t>
   </si>
   <si>
+    <t>UNC</t>
+  </si>
+  <si>
     <t>Washington</t>
   </si>
   <si>
-    <t>UNC</t>
-  </si>
-  <si>
     <t>Gonzaga</t>
   </si>
   <si>
@@ -268,9 +250,6 @@
     <t>Florida State</t>
   </si>
   <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/w/wagnefr01.html</t>
   </si>
   <si>
@@ -280,15 +259,12 @@
     <t>https://www.basketball-reference.com/players/b/banchpa01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/r/rosste01.html</t>
+    <t>https://www.basketball-reference.com/players/c/cartewe01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/a/anthoco01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/c/cartewe01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/f/fultzma01.html</t>
   </si>
   <si>
@@ -317,9 +293,6 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/i/isaacjo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/beverpa01.html</t>
   </si>
 </sst>
 </file>
@@ -690,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -739,28 +712,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>225</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
         <v>60</v>
       </c>
-      <c r="I2" t="s">
-        <v>65</v>
-      </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -774,28 +747,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>220</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
         <v>61</v>
       </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -809,28 +782,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -838,34 +811,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -879,28 +852,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>185</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -908,34 +881,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -943,34 +916,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -978,34 +951,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
         <v>60</v>
       </c>
-      <c r="I9" t="s">
-        <v>70</v>
-      </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1013,34 +986,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>205</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
         <v>62</v>
       </c>
-      <c r="I10" t="s">
-        <v>65</v>
-      </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1048,34 +1021,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
         <v>73</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1083,34 +1056,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1118,34 +1091,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1153,34 +1126,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1188,31 +1158,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
         <v>39</v>
       </c>
       <c r="F15">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1220,101 +1193,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
         <v>35</v>
       </c>
       <c r="F16">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
         <v>57</v>
       </c>
-      <c r="H16" t="s">
-        <v>62</v>
-      </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17">
-        <v>230</v>
-      </c>
-      <c r="G17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18">
-        <v>180</v>
-      </c>
-      <c r="G18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1334,8 +1240,6 @@
     <hyperlink ref="K14" r:id="rId13"/>
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Orlando/Orlando.xlsx
+++ b/rosters/2023/Orlando/Orlando.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
   <si>
     <t>No.</t>
   </si>
@@ -55,18 +55,18 @@
     <t>Paolo Banchero</t>
   </si>
   <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Markelle Fultz</t>
+  </si>
+  <si>
+    <t>Moritz Wagner</t>
+  </si>
+  <si>
     <t>Wendell Carter Jr.</t>
   </si>
   <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
-    <t>Markelle Fultz</t>
-  </si>
-  <si>
-    <t>Moritz Wagner</t>
-  </si>
-  <si>
     <t>Jalen Suggs</t>
   </si>
   <si>
@@ -76,33 +76,33 @@
     <t>Gary Harris</t>
   </si>
   <si>
-    <t>Admiral Schofield (TW)</t>
+    <t>Admiral Schofield</t>
   </si>
   <si>
     <t>Kevon Harris (TW)</t>
   </si>
   <si>
-    <t>R.J. Hampton</t>
-  </si>
-  <si>
     <t>Chuma Okeke</t>
   </si>
   <si>
     <t>Jonathan Isaac</t>
   </si>
   <si>
+    <t>Michael Carter-Williams</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
     <t>PF</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>November 12, 2002</t>
   </si>
   <si>
+    <t>May 15, 2000</t>
+  </si>
+  <si>
+    <t>May 29, 1998</t>
+  </si>
+  <si>
+    <t>April 26, 1997</t>
+  </si>
+  <si>
     <t>April 16, 1999</t>
   </si>
   <si>
-    <t>May 15, 2000</t>
-  </si>
-  <si>
-    <t>May 29, 1998</t>
-  </si>
-  <si>
-    <t>April 26, 1997</t>
-  </si>
-  <si>
     <t>June 3, 2001</t>
   </si>
   <si>
@@ -172,15 +172,15 @@
     <t>June 24, 1997</t>
   </si>
   <si>
-    <t>February 7, 2001</t>
-  </si>
-  <si>
     <t>August 18, 1998</t>
   </si>
   <si>
     <t>October 3, 1997</t>
   </si>
   <si>
+    <t>October 10, 1991</t>
+  </si>
+  <si>
     <t>de</t>
   </si>
   <si>
@@ -205,15 +205,15 @@
     <t>R</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -250,6 +250,9 @@
     <t>Florida State</t>
   </si>
   <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/wagnefr01.html</t>
   </si>
   <si>
@@ -259,18 +262,18 @@
     <t>https://www.basketball-reference.com/players/b/banchpa01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/a/anthoco01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/f/fultzma01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/wagnemo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/cartewe01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/a/anthoco01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/f/fultzma01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/wagnemo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/s/suggsja01.html</t>
   </si>
   <si>
@@ -286,13 +289,13 @@
     <t>https://www.basketball-reference.com/players/h/harrike01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/hamptrj01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/o/okekech01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/i/isaacjo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/c/cartemi01.html</t>
   </si>
 </sst>
 </file>
@@ -733,7 +736,7 @@
         <v>67</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -768,7 +771,7 @@
         <v>68</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -803,7 +806,7 @@
         <v>69</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -811,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -820,10 +823,10 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
@@ -835,10 +838,10 @@
         <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -846,19 +849,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -870,10 +873,10 @@
         <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -881,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -890,25 +893,25 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
         <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -916,34 +919,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -957,7 +960,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -978,7 +981,7 @@
         <v>72</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1013,7 +1016,7 @@
         <v>67</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1048,7 +1051,7 @@
         <v>73</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1077,13 +1080,13 @@
         <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
         <v>74</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1118,7 +1121,7 @@
         <v>75</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1126,19 +1129,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F14">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
@@ -1147,10 +1150,13 @@
         <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1158,19 +1164,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F15">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G15" t="s">
         <v>53</v>
@@ -1179,33 +1185,30 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="G16" t="s">
         <v>54</v>
@@ -1214,13 +1217,13 @@
         <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/rosters/2023/Orlando/Orlando.xlsx
+++ b/rosters/2023/Orlando/Orlando.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
   <si>
     <t>No.</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Jonathan Isaac</t>
   </si>
   <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
     <t>Michael Carter-Williams</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
     <t>October 3, 1997</t>
   </si>
   <si>
+    <t>July 20, 1999</t>
+  </si>
+  <si>
     <t>October 10, 1991</t>
   </si>
   <si>
@@ -196,6 +202,9 @@
     <t>gb</t>
   </si>
   <si>
+    <t>ge</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -293,6 +302,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/i/isaacjo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/bitadgo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/c/cartemi01.html</t>
@@ -666,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,28 +727,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>225</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -750,28 +762,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>220</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -785,28 +797,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -820,28 +832,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>185</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -855,28 +867,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>209</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -890,28 +902,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>245</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -925,28 +937,28 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>270</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -960,28 +972,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>205</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -995,28 +1007,28 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>205</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1030,28 +1042,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>210</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1065,28 +1077,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12">
         <v>241</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1100,28 +1112,28 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>216</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1135,28 +1147,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <v>229</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1170,60 +1182,92 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>230</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>35</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16">
+        <v>250</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17">
         <v>190</v>
       </c>
-      <c r="G16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>93</v>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1243,6 +1287,7 @@
     <hyperlink ref="K14" r:id="rId13"/>
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
+    <hyperlink ref="K17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Orlando/Orlando.xlsx
+++ b/rosters/2023/Orlando/Orlando.xlsx
@@ -61,12 +61,12 @@
     <t>Markelle Fultz</t>
   </si>
   <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
     <t>Moritz Wagner</t>
   </si>
   <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
     <t>Jalen Suggs</t>
   </si>
   <si>
@@ -154,12 +154,12 @@
     <t>May 29, 1998</t>
   </si>
   <si>
+    <t>April 16, 1999</t>
+  </si>
+  <si>
     <t>April 26, 1997</t>
   </si>
   <si>
-    <t>April 16, 1999</t>
-  </si>
-  <si>
     <t>June 3, 2001</t>
   </si>
   <si>
@@ -277,10 +277,10 @@
     <t>https://www.basketball-reference.com/players/f/fultzma01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/c/cartewe01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/wagnemo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/c/cartewe01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/suggsja01.html</t>
@@ -896,7 +896,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -905,22 +905,22 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
         <v>68</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>87</v>
@@ -931,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -940,22 +940,22 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
         <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>88</v>

--- a/rosters/2023/Orlando/Orlando.xlsx
+++ b/rosters/2023/Orlando/Orlando.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
   <si>
     <t>No.</t>
   </si>
@@ -49,18 +49,18 @@
     <t>Franz Wagner</t>
   </si>
   <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
     <t>Bol Bol</t>
   </si>
   <si>
-    <t>Paolo Banchero</t>
+    <t>Markelle Fultz</t>
   </si>
   <si>
     <t>Cole Anthony</t>
   </si>
   <si>
-    <t>Markelle Fultz</t>
-  </si>
-  <si>
     <t>Wendell Carter Jr.</t>
   </si>
   <si>
@@ -85,15 +85,18 @@
     <t>Chuma Okeke</t>
   </si>
   <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
     <t>Jonathan Isaac</t>
   </si>
   <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
     <t>Michael Carter-Williams</t>
   </si>
   <si>
+    <t>Jay Scrubb (TW)</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
@@ -112,18 +115,18 @@
     <t>6-9</t>
   </si>
   <si>
+    <t>6-10</t>
+  </si>
+  <si>
     <t>7-2</t>
   </si>
   <si>
-    <t>6-10</t>
+    <t>6-3</t>
   </si>
   <si>
     <t>6-2</t>
   </si>
   <si>
-    <t>6-3</t>
-  </si>
-  <si>
     <t>6-11</t>
   </si>
   <si>
@@ -142,18 +145,18 @@
     <t>August 27, 2001</t>
   </si>
   <si>
+    <t>November 12, 2002</t>
+  </si>
+  <si>
     <t>November 16, 1999</t>
   </si>
   <si>
-    <t>November 12, 2002</t>
+    <t>May 29, 1998</t>
   </si>
   <si>
     <t>May 15, 2000</t>
   </si>
   <si>
-    <t>May 29, 1998</t>
-  </si>
-  <si>
     <t>April 16, 1999</t>
   </si>
   <si>
@@ -178,24 +181,27 @@
     <t>August 18, 1998</t>
   </si>
   <si>
+    <t>July 20, 1999</t>
+  </si>
+  <si>
     <t>October 3, 1997</t>
   </si>
   <si>
-    <t>July 20, 1999</t>
-  </si>
-  <si>
     <t>October 10, 1991</t>
   </si>
   <si>
+    <t>September 1, 2000</t>
+  </si>
+  <si>
     <t>de</t>
   </si>
   <si>
+    <t>us</t>
+  </si>
+  <si>
     <t>sd</t>
   </si>
   <si>
-    <t>us</t>
-  </si>
-  <si>
     <t>ca</t>
   </si>
   <si>
@@ -208,18 +214,18 @@
     <t>1</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>R</t>
+    <t>5</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -229,18 +235,18 @@
     <t>Michigan</t>
   </si>
   <si>
+    <t>Duke</t>
+  </si>
+  <si>
     <t>Oregon</t>
   </si>
   <si>
-    <t>Duke</t>
+    <t>Washington</t>
   </si>
   <si>
     <t>UNC</t>
   </si>
   <si>
-    <t>Washington</t>
-  </si>
-  <si>
     <t>Gonzaga</t>
   </si>
   <si>
@@ -262,21 +268,24 @@
     <t>Syracuse</t>
   </si>
   <si>
+    <t>John A. Logan College</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/wagnefr01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/banchpa01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/bolbo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/banchpa01.html</t>
+    <t>https://www.basketball-reference.com/players/f/fultzma01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/a/anthoco01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/f/fultzma01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/cartewe01.html</t>
   </si>
   <si>
@@ -301,13 +310,16 @@
     <t>https://www.basketball-reference.com/players/o/okekech01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/bitadgo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/i/isaacjo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/bitadgo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/cartemi01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/s/scrubja01.html</t>
   </si>
 </sst>
 </file>
@@ -678,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,28 +739,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>225</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -756,34 +768,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -791,34 +803,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -826,34 +838,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -861,34 +873,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -902,7 +914,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -911,19 +923,19 @@
         <v>270</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -937,28 +949,28 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>245</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -972,28 +984,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>205</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1007,28 +1019,28 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>205</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1042,28 +1054,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>210</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1077,28 +1089,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>241</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1112,28 +1124,28 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13">
         <v>216</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1147,28 +1159,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <v>229</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1176,34 +1188,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1211,63 +1220,104 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="J16" t="s">
+        <v>82</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17">
         <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>220</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
         <v>69</v>
       </c>
-      <c r="J17" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>97</v>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1288,6 +1338,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
